--- a/tests/sample_data/KICS_BOZ_CD_RISK_NL.xlsx
+++ b/tests/sample_data/KICS_BOZ_CD_RISK_NL.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="5248"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11700205\workspace\14. K-ICS\kics\tests\sample_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="0.001"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1120">
   <si>
     <t>BASE_DATE</t>
   </si>
@@ -3377,71 +3384,75 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill>
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border outline="0">
-      <left>
-        <color auto="1"/>
-      </left>
-      <right>
-        <color auto="1"/>
-      </right>
-      <top>
-        <color auto="1"/>
-      </top>
-      <bottom>
-        <color auto="1"/>
-      </bottom>
-      <diagonal>
-        <color auto="1"/>
-      </diagonal>
-      <vertical>
-        <color auto="1"/>
-      </vertical>
-      <horizontal>
-        <color auto="1"/>
-      </horizontal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3483,13 +3494,13 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?? ?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -3515,15 +3526,16 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?? ?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -3549,6 +3561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3724,10 +3737,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +3790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43100</v>
       </c>
@@ -3812,10 +3831,10 @@
         <v>20</v>
       </c>
       <c r="N2" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="3" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43100</v>
       </c>
@@ -3856,10 +3875,10 @@
         <v>27</v>
       </c>
       <c r="N3" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="4" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43100</v>
       </c>
@@ -3900,10 +3919,10 @@
         <v>34</v>
       </c>
       <c r="N4" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="5" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -3926,7 +3945,7 @@
         <v>40</v>
       </c>
       <c r="H5">
-        <v>40703591983.21</v>
+        <v>40703591983.209999</v>
       </c>
       <c r="I5">
         <v>8238849365</v>
@@ -3944,10 +3963,10 @@
         <v>41</v>
       </c>
       <c r="N5" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="6" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43100</v>
       </c>
@@ -3970,7 +3989,7 @@
         <v>47</v>
       </c>
       <c r="H6">
-        <v>28083889107.64</v>
+        <v>28083889107.639999</v>
       </c>
       <c r="I6">
         <v>14182930476</v>
@@ -3988,10 +4007,10 @@
         <v>48</v>
       </c>
       <c r="N6" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="7" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43100</v>
       </c>
@@ -4032,10 +4051,10 @@
         <v>55</v>
       </c>
       <c r="N7" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="8" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43100</v>
       </c>
@@ -4076,10 +4095,10 @@
         <v>62</v>
       </c>
       <c r="N8" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="9" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43100</v>
       </c>
@@ -4102,7 +4121,7 @@
         <v>68</v>
       </c>
       <c r="H9">
-        <v>18015180749.86</v>
+        <v>18015180749.860001</v>
       </c>
       <c r="I9">
         <v>15997042517</v>
@@ -4120,10 +4139,10 @@
         <v>69</v>
       </c>
       <c r="N9" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="10" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43100</v>
       </c>
@@ -4164,10 +4183,10 @@
         <v>76</v>
       </c>
       <c r="N10" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="11" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -4208,10 +4227,10 @@
         <v>83</v>
       </c>
       <c r="N11" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="12" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43100</v>
       </c>
@@ -4252,10 +4271,10 @@
         <v>90</v>
       </c>
       <c r="N12" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="13" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43100</v>
       </c>
@@ -4296,10 +4315,10 @@
         <v>97</v>
       </c>
       <c r="N13" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="14" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43100</v>
       </c>
@@ -4340,10 +4359,10 @@
         <v>104</v>
       </c>
       <c r="N14" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="15" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43100</v>
       </c>
@@ -4366,7 +4385,7 @@
         <v>110</v>
       </c>
       <c r="H15">
-        <v>675509099960.54</v>
+        <v>675509099960.54004</v>
       </c>
       <c r="I15">
         <v>318829916925</v>
@@ -4384,10 +4403,10 @@
         <v>111</v>
       </c>
       <c r="N15" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="16" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43100</v>
       </c>
@@ -4410,7 +4429,7 @@
         <v>117</v>
       </c>
       <c r="H16">
-        <v>1289092327892.59</v>
+        <v>1289092327892.5901</v>
       </c>
       <c r="I16">
         <v>74316993973</v>
@@ -4428,10 +4447,10 @@
         <v>118</v>
       </c>
       <c r="N16" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="17" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43100</v>
       </c>
@@ -4472,10 +4491,10 @@
         <v>125</v>
       </c>
       <c r="N17" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="18" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43100</v>
       </c>
@@ -4516,10 +4535,10 @@
         <v>132</v>
       </c>
       <c r="N18" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="19" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43100</v>
       </c>
@@ -4560,10 +4579,10 @@
         <v>139</v>
       </c>
       <c r="N19" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="20" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43100</v>
       </c>
@@ -4604,10 +4623,10 @@
         <v>146</v>
       </c>
       <c r="N20" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="21" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43100</v>
       </c>
@@ -4630,7 +4649,7 @@
         <v>152</v>
       </c>
       <c r="H21">
-        <v>45026820459.04</v>
+        <v>45026820459.040001</v>
       </c>
       <c r="I21">
         <v>9373344931</v>
@@ -4648,10 +4667,10 @@
         <v>153</v>
       </c>
       <c r="N21" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="22" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43100</v>
       </c>
@@ -4692,10 +4711,10 @@
         <v>160</v>
       </c>
       <c r="N22" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="23" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43100</v>
       </c>
@@ -4736,10 +4755,10 @@
         <v>167</v>
       </c>
       <c r="N23" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="24" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43100</v>
       </c>
@@ -4780,10 +4799,10 @@
         <v>174</v>
       </c>
       <c r="N24" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="25" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43100</v>
       </c>
@@ -4824,10 +4843,10 @@
         <v>181</v>
       </c>
       <c r="N25" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="26" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43100</v>
       </c>
@@ -4868,10 +4887,10 @@
         <v>188</v>
       </c>
       <c r="N26" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="27" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43100</v>
       </c>
@@ -4912,10 +4931,10 @@
         <v>195</v>
       </c>
       <c r="N27" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="28" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43100</v>
       </c>
@@ -4956,10 +4975,10 @@
         <v>202</v>
       </c>
       <c r="N28" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="29" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43100</v>
       </c>
@@ -5000,10 +5019,10 @@
         <v>209</v>
       </c>
       <c r="N29" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="30" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43100</v>
       </c>
@@ -5044,10 +5063,10 @@
         <v>216</v>
       </c>
       <c r="N30" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="31" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43100</v>
       </c>
@@ -5088,10 +5107,10 @@
         <v>223</v>
       </c>
       <c r="N31" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="32" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43100</v>
       </c>
@@ -5132,10 +5151,10 @@
         <v>230</v>
       </c>
       <c r="N32" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="33" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43100</v>
       </c>
@@ -5176,10 +5195,10 @@
         <v>237</v>
       </c>
       <c r="N33" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="34" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43100</v>
       </c>
@@ -5220,10 +5239,10 @@
         <v>244</v>
       </c>
       <c r="N34" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="35" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43100</v>
       </c>
@@ -5264,10 +5283,10 @@
         <v>251</v>
       </c>
       <c r="N35" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="36" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43100</v>
       </c>
@@ -5308,10 +5327,10 @@
         <v>258</v>
       </c>
       <c r="N36" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="37" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43100</v>
       </c>
@@ -5352,10 +5371,10 @@
         <v>265</v>
       </c>
       <c r="N37" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="38" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43100</v>
       </c>
@@ -5396,10 +5415,10 @@
         <v>272</v>
       </c>
       <c r="N38" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="39" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43100</v>
       </c>
@@ -5440,10 +5459,10 @@
         <v>279</v>
       </c>
       <c r="N39" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="40" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43100</v>
       </c>
@@ -5484,10 +5503,10 @@
         <v>286</v>
       </c>
       <c r="N40" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="41" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -5528,10 +5547,10 @@
         <v>293</v>
       </c>
       <c r="N41" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="42" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43100</v>
       </c>
@@ -5572,10 +5591,10 @@
         <v>300</v>
       </c>
       <c r="N42" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="43" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43100</v>
       </c>
@@ -5616,10 +5635,10 @@
         <v>307</v>
       </c>
       <c r="N43" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="44" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43100</v>
       </c>
@@ -5660,10 +5679,10 @@
         <v>314</v>
       </c>
       <c r="N44" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="45" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43100</v>
       </c>
@@ -5704,10 +5723,10 @@
         <v>321</v>
       </c>
       <c r="N45" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="46" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43100</v>
       </c>
@@ -5748,10 +5767,10 @@
         <v>328</v>
       </c>
       <c r="N46" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="47" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43100</v>
       </c>
@@ -5792,10 +5811,10 @@
         <v>335</v>
       </c>
       <c r="N47" s="2">
-        <v>43769.4027314815</v>
-      </c>
-    </row>
-    <row r="48" ht="15">
+        <v>43769.402731481503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43465</v>
       </c>
@@ -5818,7 +5837,7 @@
         <v>341</v>
       </c>
       <c r="H48">
-        <v>33434818838.04</v>
+        <v>33434818838.040001</v>
       </c>
       <c r="I48">
         <v>9306821670</v>
@@ -5836,10 +5855,10 @@
         <v>342</v>
       </c>
       <c r="N48" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="49" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43465</v>
       </c>
@@ -5880,10 +5899,10 @@
         <v>349</v>
       </c>
       <c r="N49" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="50" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43465</v>
       </c>
@@ -5906,7 +5925,7 @@
         <v>355</v>
       </c>
       <c r="H50">
-        <v>76382924363.6</v>
+        <v>76382924363.600006</v>
       </c>
       <c r="I50">
         <v>39717378975</v>
@@ -5924,10 +5943,10 @@
         <v>356</v>
       </c>
       <c r="N50" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="51" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43465</v>
       </c>
@@ -5968,10 +5987,10 @@
         <v>363</v>
       </c>
       <c r="N51" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="52" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43465</v>
       </c>
@@ -6012,10 +6031,10 @@
         <v>370</v>
       </c>
       <c r="N52" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="53" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43465</v>
       </c>
@@ -6038,7 +6057,7 @@
         <v>376</v>
       </c>
       <c r="H53">
-        <v>53621371892.35</v>
+        <v>53621371892.349998</v>
       </c>
       <c r="I53">
         <v>24621962850</v>
@@ -6056,10 +6075,10 @@
         <v>377</v>
       </c>
       <c r="N53" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="54" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43465</v>
       </c>
@@ -6100,10 +6119,10 @@
         <v>384</v>
       </c>
       <c r="N54" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="55" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43465</v>
       </c>
@@ -6144,10 +6163,10 @@
         <v>391</v>
       </c>
       <c r="N55" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="56" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43465</v>
       </c>
@@ -6188,10 +6207,10 @@
         <v>398</v>
       </c>
       <c r="N56" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="57" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43465</v>
       </c>
@@ -6232,10 +6251,10 @@
         <v>405</v>
       </c>
       <c r="N57" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="58" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43465</v>
       </c>
@@ -6276,10 +6295,10 @@
         <v>412</v>
       </c>
       <c r="N58" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="59" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43465</v>
       </c>
@@ -6302,7 +6321,7 @@
         <v>418</v>
       </c>
       <c r="H59">
-        <v>742825615395.81</v>
+        <v>742825615395.81006</v>
       </c>
       <c r="I59">
         <v>329988519902</v>
@@ -6320,10 +6339,10 @@
         <v>419</v>
       </c>
       <c r="N59" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="60" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43465</v>
       </c>
@@ -6346,7 +6365,7 @@
         <v>425</v>
       </c>
       <c r="H60">
-        <v>1271557031238.14</v>
+        <v>1271557031238.1399</v>
       </c>
       <c r="I60">
         <v>84069324820</v>
@@ -6364,10 +6383,10 @@
         <v>426</v>
       </c>
       <c r="N60" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="61" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43465</v>
       </c>
@@ -6390,7 +6409,7 @@
         <v>432</v>
       </c>
       <c r="H61">
-        <v>283402597743.74</v>
+        <v>283402597743.73999</v>
       </c>
       <c r="I61">
         <v>125337163876</v>
@@ -6408,10 +6427,10 @@
         <v>433</v>
       </c>
       <c r="N61" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="62" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43465</v>
       </c>
@@ -6434,7 +6453,7 @@
         <v>439</v>
       </c>
       <c r="H62">
-        <v>441747346692.42</v>
+        <v>441747346692.41998</v>
       </c>
       <c r="I62">
         <v>25751080495</v>
@@ -6452,10 +6471,10 @@
         <v>440</v>
       </c>
       <c r="N62" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="63" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43465</v>
       </c>
@@ -6478,7 +6497,7 @@
         <v>446</v>
       </c>
       <c r="H63">
-        <v>105441776791.6</v>
+        <v>105441776791.60001</v>
       </c>
       <c r="I63">
         <v>52921901465</v>
@@ -6496,10 +6515,10 @@
         <v>447</v>
       </c>
       <c r="N63" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="64" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43465</v>
       </c>
@@ -6540,10 +6559,10 @@
         <v>454</v>
       </c>
       <c r="N64" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="65" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43465</v>
       </c>
@@ -6584,10 +6603,10 @@
         <v>461</v>
       </c>
       <c r="N65" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="66" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43465</v>
       </c>
@@ -6628,10 +6647,10 @@
         <v>468</v>
       </c>
       <c r="N66" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="67" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43465</v>
       </c>
@@ -6672,10 +6691,10 @@
         <v>475</v>
       </c>
       <c r="N67" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="68" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43465</v>
       </c>
@@ -6716,10 +6735,10 @@
         <v>482</v>
       </c>
       <c r="N68" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="69" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43465</v>
       </c>
@@ -6760,10 +6779,10 @@
         <v>489</v>
       </c>
       <c r="N69" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="70" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43465</v>
       </c>
@@ -6804,10 +6823,10 @@
         <v>496</v>
       </c>
       <c r="N70" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="71" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43465</v>
       </c>
@@ -6848,10 +6867,10 @@
         <v>503</v>
       </c>
       <c r="N71" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="72" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43465</v>
       </c>
@@ -6892,10 +6911,10 @@
         <v>510</v>
       </c>
       <c r="N72" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="73" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43465</v>
       </c>
@@ -6936,10 +6955,10 @@
         <v>517</v>
       </c>
       <c r="N73" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="74" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43465</v>
       </c>
@@ -6980,10 +6999,10 @@
         <v>524</v>
       </c>
       <c r="N74" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="75" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43465</v>
       </c>
@@ -7024,10 +7043,10 @@
         <v>531</v>
       </c>
       <c r="N75" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="76" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43465</v>
       </c>
@@ -7068,10 +7087,10 @@
         <v>538</v>
       </c>
       <c r="N76" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="77" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43465</v>
       </c>
@@ -7112,10 +7131,10 @@
         <v>545</v>
       </c>
       <c r="N77" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="78" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43465</v>
       </c>
@@ -7156,10 +7175,10 @@
         <v>552</v>
       </c>
       <c r="N78" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="79" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43465</v>
       </c>
@@ -7200,10 +7219,10 @@
         <v>559</v>
       </c>
       <c r="N79" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="80" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43465</v>
       </c>
@@ -7244,10 +7263,10 @@
         <v>566</v>
       </c>
       <c r="N80" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="81" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43465</v>
       </c>
@@ -7288,10 +7307,10 @@
         <v>573</v>
       </c>
       <c r="N81" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="82" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43465</v>
       </c>
@@ -7332,10 +7351,10 @@
         <v>580</v>
       </c>
       <c r="N82" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="83" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43465</v>
       </c>
@@ -7376,10 +7395,10 @@
         <v>587</v>
       </c>
       <c r="N83" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="84" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43465</v>
       </c>
@@ -7420,10 +7439,10 @@
         <v>594</v>
       </c>
       <c r="N84" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="85" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43465</v>
       </c>
@@ -7464,10 +7483,10 @@
         <v>601</v>
       </c>
       <c r="N85" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="86" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43465</v>
       </c>
@@ -7508,10 +7527,10 @@
         <v>608</v>
       </c>
       <c r="N86" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="87" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43465</v>
       </c>
@@ -7552,10 +7571,10 @@
         <v>615</v>
       </c>
       <c r="N87" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="88" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43465</v>
       </c>
@@ -7596,10 +7615,10 @@
         <v>622</v>
       </c>
       <c r="N88" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="89" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43465</v>
       </c>
@@ -7640,10 +7659,10 @@
         <v>629</v>
       </c>
       <c r="N89" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="90" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43465</v>
       </c>
@@ -7684,10 +7703,10 @@
         <v>636</v>
       </c>
       <c r="N90" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="91" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43465</v>
       </c>
@@ -7728,10 +7747,10 @@
         <v>643</v>
       </c>
       <c r="N91" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="92" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43465</v>
       </c>
@@ -7772,10 +7791,10 @@
         <v>650</v>
       </c>
       <c r="N92" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="93" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43465</v>
       </c>
@@ -7816,10 +7835,10 @@
         <v>657</v>
       </c>
       <c r="N93" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="94" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43465</v>
       </c>
@@ -7860,10 +7879,10 @@
         <v>664</v>
       </c>
       <c r="N94" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="95" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43465</v>
       </c>
@@ -7904,10 +7923,10 @@
         <v>671</v>
       </c>
       <c r="N95" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="96" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43465</v>
       </c>
@@ -7948,10 +7967,10 @@
         <v>678</v>
       </c>
       <c r="N96" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="97" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43465</v>
       </c>
@@ -7992,10 +8011,10 @@
         <v>685</v>
       </c>
       <c r="N97" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="98" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43465</v>
       </c>
@@ -8036,10 +8055,10 @@
         <v>692</v>
       </c>
       <c r="N98" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="99" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43465</v>
       </c>
@@ -8080,10 +8099,10 @@
         <v>699</v>
       </c>
       <c r="N99" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="100" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43465</v>
       </c>
@@ -8124,10 +8143,10 @@
         <v>706</v>
       </c>
       <c r="N100" s="2">
-        <v>43819.4096875</v>
-      </c>
-    </row>
-    <row r="101" ht="15">
+        <v>43819.409687500003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43830</v>
       </c>
@@ -8150,7 +8169,7 @@
         <v>712</v>
       </c>
       <c r="H101">
-        <v>30920735691.0403</v>
+        <v>30920735691.040298</v>
       </c>
       <c r="I101">
         <v>15728531713</v>
@@ -8168,10 +8187,10 @@
         <v>713</v>
       </c>
       <c r="N101" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="102" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43830</v>
       </c>
@@ -8212,10 +8231,10 @@
         <v>720</v>
       </c>
       <c r="N102" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="103" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43830</v>
       </c>
@@ -8238,7 +8257,7 @@
         <v>726</v>
       </c>
       <c r="H103">
-        <v>86802267214.971</v>
+        <v>86802267214.970993</v>
       </c>
       <c r="I103">
         <v>17909880044</v>
@@ -8256,10 +8275,10 @@
         <v>727</v>
       </c>
       <c r="N103" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="104" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43830</v>
       </c>
@@ -8300,10 +8319,10 @@
         <v>734</v>
       </c>
       <c r="N104" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="105" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43830</v>
       </c>
@@ -8344,10 +8363,10 @@
         <v>741</v>
       </c>
       <c r="N105" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="106" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43830</v>
       </c>
@@ -8370,7 +8389,7 @@
         <v>747</v>
       </c>
       <c r="H106">
-        <v>59961892637.3403</v>
+        <v>59961892637.340302</v>
       </c>
       <c r="I106">
         <v>38774081379</v>
@@ -8388,10 +8407,10 @@
         <v>748</v>
       </c>
       <c r="N106" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="107" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43830</v>
       </c>
@@ -8432,10 +8451,10 @@
         <v>755</v>
       </c>
       <c r="N107" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="108" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43830</v>
       </c>
@@ -8476,10 +8495,10 @@
         <v>762</v>
       </c>
       <c r="N108" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="109" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43830</v>
       </c>
@@ -8520,10 +8539,10 @@
         <v>769</v>
       </c>
       <c r="N109" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="110" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43830</v>
       </c>
@@ -8564,10 +8583,10 @@
         <v>776</v>
       </c>
       <c r="N110" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="111" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43830</v>
       </c>
@@ -8608,10 +8627,10 @@
         <v>783</v>
       </c>
       <c r="N111" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="112" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43830</v>
       </c>
@@ -8634,7 +8653,7 @@
         <v>789</v>
       </c>
       <c r="H112">
-        <v>794218397812.121</v>
+        <v>794218397812.12097</v>
       </c>
       <c r="I112">
         <v>291162024538</v>
@@ -8652,10 +8671,10 @@
         <v>790</v>
       </c>
       <c r="N112" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="113" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43830</v>
       </c>
@@ -8678,7 +8697,7 @@
         <v>796</v>
       </c>
       <c r="H113">
-        <v>1320377626093.33</v>
+        <v>1320377626093.3301</v>
       </c>
       <c r="I113">
         <v>72651094243</v>
@@ -8696,10 +8715,10 @@
         <v>797</v>
       </c>
       <c r="N113" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="114" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43830</v>
       </c>
@@ -8722,7 +8741,7 @@
         <v>803</v>
       </c>
       <c r="H114">
-        <v>273347080325.046</v>
+        <v>273347080325.04599</v>
       </c>
       <c r="I114">
         <v>122681262665</v>
@@ -8740,10 +8759,10 @@
         <v>804</v>
       </c>
       <c r="N114" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="115" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43830</v>
       </c>
@@ -8766,7 +8785,7 @@
         <v>810</v>
       </c>
       <c r="H115">
-        <v>401975557489.636</v>
+        <v>401975557489.63599</v>
       </c>
       <c r="I115">
         <v>21115963115</v>
@@ -8784,10 +8803,10 @@
         <v>811</v>
       </c>
       <c r="N115" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="116" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43830</v>
       </c>
@@ -8828,10 +8847,10 @@
         <v>818</v>
       </c>
       <c r="N116" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="117" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43830</v>
       </c>
@@ -8872,10 +8891,10 @@
         <v>825</v>
       </c>
       <c r="N117" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="118" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43830</v>
       </c>
@@ -8916,10 +8935,10 @@
         <v>832</v>
       </c>
       <c r="N118" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="119" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43830</v>
       </c>
@@ -8960,10 +8979,10 @@
         <v>839</v>
       </c>
       <c r="N119" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="120" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43830</v>
       </c>
@@ -9004,10 +9023,10 @@
         <v>846</v>
       </c>
       <c r="N120" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="121" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43830</v>
       </c>
@@ -9048,10 +9067,10 @@
         <v>853</v>
       </c>
       <c r="N121" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="122" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43830</v>
       </c>
@@ -9092,10 +9111,10 @@
         <v>860</v>
       </c>
       <c r="N122" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="123" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43830</v>
       </c>
@@ -9136,10 +9155,10 @@
         <v>867</v>
       </c>
       <c r="N123" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="124" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43830</v>
       </c>
@@ -9180,10 +9199,10 @@
         <v>874</v>
       </c>
       <c r="N124" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="125" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43830</v>
       </c>
@@ -9224,10 +9243,10 @@
         <v>881</v>
       </c>
       <c r="N125" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="126" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43830</v>
       </c>
@@ -9268,10 +9287,10 @@
         <v>888</v>
       </c>
       <c r="N126" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="127" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43830</v>
       </c>
@@ -9312,10 +9331,10 @@
         <v>895</v>
       </c>
       <c r="N127" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="128" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43830</v>
       </c>
@@ -9356,10 +9375,10 @@
         <v>902</v>
       </c>
       <c r="N128" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="129" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43830</v>
       </c>
@@ -9400,10 +9419,10 @@
         <v>909</v>
       </c>
       <c r="N129" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="130" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43830</v>
       </c>
@@ -9444,10 +9463,10 @@
         <v>916</v>
       </c>
       <c r="N130" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="131" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43830</v>
       </c>
@@ -9488,10 +9507,10 @@
         <v>923</v>
       </c>
       <c r="N131" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="132" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43830</v>
       </c>
@@ -9532,10 +9551,10 @@
         <v>930</v>
       </c>
       <c r="N132" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="133" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43830</v>
       </c>
@@ -9576,10 +9595,10 @@
         <v>937</v>
       </c>
       <c r="N133" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="134" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43830</v>
       </c>
@@ -9620,10 +9639,10 @@
         <v>944</v>
       </c>
       <c r="N134" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="135" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43830</v>
       </c>
@@ -9664,10 +9683,10 @@
         <v>951</v>
       </c>
       <c r="N135" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="136" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43830</v>
       </c>
@@ -9708,10 +9727,10 @@
         <v>958</v>
       </c>
       <c r="N136" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="137" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43830</v>
       </c>
@@ -9752,10 +9771,10 @@
         <v>965</v>
       </c>
       <c r="N137" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="138" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43830</v>
       </c>
@@ -9796,10 +9815,10 @@
         <v>972</v>
       </c>
       <c r="N138" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="139" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43830</v>
       </c>
@@ -9840,10 +9859,10 @@
         <v>979</v>
       </c>
       <c r="N139" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="140" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43830</v>
       </c>
@@ -9884,10 +9903,10 @@
         <v>986</v>
       </c>
       <c r="N140" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="141" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43830</v>
       </c>
@@ -9928,10 +9947,10 @@
         <v>993</v>
       </c>
       <c r="N141" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="142" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43830</v>
       </c>
@@ -9972,10 +9991,10 @@
         <v>1000</v>
       </c>
       <c r="N142" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="143" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43830</v>
       </c>
@@ -10016,10 +10035,10 @@
         <v>1007</v>
       </c>
       <c r="N143" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="144" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43830</v>
       </c>
@@ -10060,10 +10079,10 @@
         <v>1014</v>
       </c>
       <c r="N144" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="145" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43830</v>
       </c>
@@ -10104,10 +10123,10 @@
         <v>1021</v>
       </c>
       <c r="N145" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="146" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43830</v>
       </c>
@@ -10148,10 +10167,10 @@
         <v>1028</v>
       </c>
       <c r="N146" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="147" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43830</v>
       </c>
@@ -10192,10 +10211,10 @@
         <v>1035</v>
       </c>
       <c r="N147" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="148" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43830</v>
       </c>
@@ -10236,10 +10255,10 @@
         <v>1042</v>
       </c>
       <c r="N148" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="149" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43830</v>
       </c>
@@ -10280,10 +10299,10 @@
         <v>1049</v>
       </c>
       <c r="N149" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="150" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43830</v>
       </c>
@@ -10324,10 +10343,10 @@
         <v>1056</v>
       </c>
       <c r="N150" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="151" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43830</v>
       </c>
@@ -10368,10 +10387,10 @@
         <v>1063</v>
       </c>
       <c r="N151" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="152" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43830</v>
       </c>
@@ -10412,10 +10431,10 @@
         <v>1070</v>
       </c>
       <c r="N152" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="153" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43830</v>
       </c>
@@ -10456,10 +10475,10 @@
         <v>1077</v>
       </c>
       <c r="N153" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="154" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43830</v>
       </c>
@@ -10500,10 +10519,10 @@
         <v>1084</v>
       </c>
       <c r="N154" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="155" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43830</v>
       </c>
@@ -10544,10 +10563,10 @@
         <v>1091</v>
       </c>
       <c r="N155" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="156" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43830</v>
       </c>
@@ -10588,10 +10607,10 @@
         <v>1098</v>
       </c>
       <c r="N156" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="157" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43830</v>
       </c>
@@ -10632,10 +10651,10 @@
         <v>1105</v>
       </c>
       <c r="N157" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="158" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43830</v>
       </c>
@@ -10676,10 +10695,10 @@
         <v>1112</v>
       </c>
       <c r="N158" s="2">
-        <v>44246.4811689815</v>
-      </c>
-    </row>
-    <row r="159" ht="15">
+        <v>44246.481168981503</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43830</v>
       </c>
@@ -10720,11 +10739,12 @@
         <v>1119</v>
       </c>
       <c r="N159" s="2">
-        <v>44246.4811689815</v>
+        <v>44246.481168981503</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>